--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H2">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>8.781144333333334</v>
+        <v>83.28058766666668</v>
       </c>
       <c r="N2">
-        <v>26.343433</v>
+        <v>249.841763</v>
       </c>
       <c r="O2">
-        <v>0.1283382517649557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1283382517649557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>214.6617410439304</v>
+        <v>4882.652188830998</v>
       </c>
       <c r="R2">
-        <v>1931.955669395374</v>
+        <v>43943.86969947898</v>
       </c>
       <c r="S2">
-        <v>0.05177232162896338</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="T2">
-        <v>0.05177232162896337</v>
+        <v>0.5702456571409142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.44575933333333</v>
+        <v>14.28901333333333</v>
       </c>
       <c r="H3">
-        <v>73.337278</v>
+        <v>42.86704</v>
       </c>
       <c r="I3">
-        <v>0.4034052273345712</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J3">
-        <v>0.4034052273345712</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.64073466666667</v>
+        <v>83.28058766666668</v>
       </c>
       <c r="N3">
-        <v>178.922204</v>
+        <v>249.841763</v>
       </c>
       <c r="O3">
-        <v>0.8716617482350443</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8716617482350443</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1457.963046124524</v>
+        <v>1189.997427576836</v>
       </c>
       <c r="R3">
-        <v>13121.66741512071</v>
+        <v>10709.97684819152</v>
       </c>
       <c r="S3">
-        <v>0.3516329057056078</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="T3">
-        <v>0.3516329057056078</v>
+        <v>0.1389799721218763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.28901333333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H4">
-        <v>42.86704</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I4">
-        <v>0.2357980618855278</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J4">
-        <v>0.2357980618855278</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>8.781144333333334</v>
+        <v>83.28058766666668</v>
       </c>
       <c r="N4">
-        <v>26.343433</v>
+        <v>249.841763</v>
       </c>
       <c r="O4">
-        <v>0.1283382517649557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1283382517649557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>125.4738884609245</v>
+        <v>2271.493463277248</v>
       </c>
       <c r="R4">
-        <v>1129.26499614832</v>
+        <v>20443.44116949523</v>
       </c>
       <c r="S4">
-        <v>0.03026191103195347</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="T4">
-        <v>0.03026191103195347</v>
+        <v>0.2652880509532971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.28901333333333</v>
+        <v>2.620337</v>
       </c>
       <c r="H5">
-        <v>42.86704</v>
+        <v>7.861011</v>
       </c>
       <c r="I5">
-        <v>0.2357980618855278</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J5">
-        <v>0.2357980618855278</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.64073466666667</v>
+        <v>83.28058766666668</v>
       </c>
       <c r="N5">
-        <v>178.922204</v>
+        <v>249.841763</v>
       </c>
       <c r="O5">
-        <v>0.8716617482350443</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8716617482350443</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>852.2072528617956</v>
+        <v>218.2232052447103</v>
       </c>
       <c r="R5">
-        <v>7669.86527575616</v>
+        <v>1964.008847202393</v>
       </c>
       <c r="S5">
-        <v>0.2055361508535744</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="T5">
-        <v>0.2055361508535744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>21.38374133333333</v>
-      </c>
-      <c r="H6">
-        <v>64.151224</v>
-      </c>
-      <c r="I6">
-        <v>0.3528756426099016</v>
-      </c>
-      <c r="J6">
-        <v>0.3528756426099016</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>8.781144333333334</v>
-      </c>
-      <c r="N6">
-        <v>26.343433</v>
-      </c>
-      <c r="O6">
-        <v>0.1283382517649557</v>
-      </c>
-      <c r="P6">
-        <v>0.1283382517649557</v>
-      </c>
-      <c r="Q6">
-        <v>187.7737190346658</v>
-      </c>
-      <c r="R6">
-        <v>1689.963471311992</v>
-      </c>
-      <c r="S6">
-        <v>0.04528744306299008</v>
-      </c>
-      <c r="T6">
-        <v>0.04528744306299008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>21.38374133333333</v>
-      </c>
-      <c r="H7">
-        <v>64.151224</v>
-      </c>
-      <c r="I7">
-        <v>0.3528756426099016</v>
-      </c>
-      <c r="J7">
-        <v>0.3528756426099016</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>59.64073466666667</v>
-      </c>
-      <c r="N7">
-        <v>178.922204</v>
-      </c>
-      <c r="O7">
-        <v>0.8716617482350443</v>
-      </c>
-      <c r="P7">
-        <v>0.8716617482350443</v>
-      </c>
-      <c r="Q7">
-        <v>1275.342043041966</v>
-      </c>
-      <c r="R7">
-        <v>11478.07838737769</v>
-      </c>
-      <c r="S7">
-        <v>0.3075881995469115</v>
-      </c>
-      <c r="T7">
-        <v>0.3075881995469115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.480005</v>
-      </c>
-      <c r="H8">
-        <v>1.440015</v>
-      </c>
-      <c r="I8">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="J8">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>8.781144333333334</v>
-      </c>
-      <c r="N8">
-        <v>26.343433</v>
-      </c>
-      <c r="O8">
-        <v>0.1283382517649557</v>
-      </c>
-      <c r="P8">
-        <v>0.1283382517649557</v>
-      </c>
-      <c r="Q8">
-        <v>4.214993185721666</v>
-      </c>
-      <c r="R8">
-        <v>37.934938671495</v>
-      </c>
-      <c r="S8">
-        <v>0.001016576041048751</v>
-      </c>
-      <c r="T8">
-        <v>0.001016576041048751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.480005</v>
-      </c>
-      <c r="H9">
-        <v>1.440015</v>
-      </c>
-      <c r="I9">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="J9">
-        <v>0.007921068169999336</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>59.64073466666667</v>
-      </c>
-      <c r="N9">
-        <v>178.922204</v>
-      </c>
-      <c r="O9">
-        <v>0.8716617482350443</v>
-      </c>
-      <c r="P9">
-        <v>0.8716617482350443</v>
-      </c>
-      <c r="Q9">
-        <v>28.62785084367333</v>
-      </c>
-      <c r="R9">
-        <v>257.65065759306</v>
-      </c>
-      <c r="S9">
-        <v>0.006904492128950584</v>
-      </c>
-      <c r="T9">
-        <v>0.006904492128950584</v>
+        <v>0.02548631978391236</v>
       </c>
     </row>
   </sheetData>
